--- a/voti_magistrale_laurea.xlsx
+++ b/voti_magistrale_laurea.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loryb\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loryb\Desktop\AutIng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B99ED0-E6B4-48DA-894B-5F5A0CC7C7DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A33502-035A-4566-BFC7-89669E49CB1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="3405" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -812,6 +812,28 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -825,28 +847,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1131,33 +1131,33 @@
   <dimension ref="B1:G1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.75" customWidth="1"/>
-    <col min="2" max="2" width="2.875" customWidth="1"/>
-    <col min="3" max="3" width="52.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.25" customWidth="1"/>
-    <col min="5" max="5" width="11.875" customWidth="1"/>
-    <col min="6" max="6" width="9.375" customWidth="1"/>
-    <col min="7" max="7" width="8.625" customWidth="1"/>
-    <col min="8" max="27" width="7.625" customWidth="1"/>
+    <col min="1" max="1" width="5.69921875" customWidth="1"/>
+    <col min="2" max="2" width="2.8984375" customWidth="1"/>
+    <col min="3" max="3" width="52.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.19921875" customWidth="1"/>
+    <col min="5" max="5" width="11.8984375" customWidth="1"/>
+    <col min="6" max="6" width="9.3984375" customWidth="1"/>
+    <col min="7" max="7" width="8.59765625" customWidth="1"/>
+    <col min="8" max="27" width="7.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="48" t="s">
+    <row r="1" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="50"/>
-    </row>
-    <row r="3" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="58"/>
+    </row>
+    <row r="3" spans="2:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="36" t="s">
         <v>1</v>
       </c>
@@ -1177,11 +1177,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="26">
         <v>1</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="46" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="27">
@@ -1197,11 +1197,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="30">
         <v>2</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="48" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="22">
@@ -1217,11 +1217,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="30">
         <v>3</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="C6" s="50" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="22">
@@ -1231,17 +1231,17 @@
         <v>9</v>
       </c>
       <c r="F6" s="22">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="30">
         <v>4</v>
       </c>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="50" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="22">
@@ -1251,17 +1251,17 @@
         <v>6</v>
       </c>
       <c r="F7" s="22">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G7" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="30">
         <v>5</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="47" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="22">
@@ -1277,11 +1277,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B9" s="30">
         <v>6</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="47" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="22">
@@ -1297,11 +1297,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B10" s="30">
         <v>7</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="47" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="22">
@@ -1317,11 +1317,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B11" s="30">
         <v>8</v>
       </c>
-      <c r="C11" s="58" t="s">
+      <c r="C11" s="52" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="22">
@@ -1331,17 +1331,17 @@
         <v>12</v>
       </c>
       <c r="F11" s="22">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G11" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B12" s="30">
         <v>9</v>
       </c>
-      <c r="C12" s="55" t="s">
+      <c r="C12" s="49" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="22">
@@ -1357,11 +1357,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B13" s="30">
         <v>10</v>
       </c>
-      <c r="C13" s="55" t="s">
+      <c r="C13" s="49" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="22">
@@ -1377,7 +1377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B14" s="30">
         <v>11</v>
       </c>
@@ -1397,11 +1397,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B15" s="30">
         <v>12</v>
       </c>
-      <c r="C15" s="57" t="s">
+      <c r="C15" s="51" t="s">
         <v>31</v>
       </c>
       <c r="D15" s="22">
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B16" s="30">
         <v>13</v>
       </c>
@@ -1431,7 +1431,7 @@
       <c r="F16" s="37"/>
       <c r="G16" s="38"/>
     </row>
-    <row r="17" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="32">
         <v>14</v>
       </c>
@@ -1445,12 +1445,12 @@
       <c r="F17" s="39"/>
       <c r="G17" s="40"/>
     </row>
-    <row r="18" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="45" t="s">
+    <row r="18" spans="2:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="46"/>
-      <c r="D18" s="47"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="55"/>
       <c r="E18" s="19">
         <f>SUM(E4:E17)</f>
         <v>120</v>
@@ -1464,7 +1464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
       <c r="D19" s="1"/>
@@ -1472,7 +1472,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20" s="3" t="s">
         <v>17</v>
@@ -1482,15 +1482,15 @@
       </c>
       <c r="E20" s="5">
         <f>SUMPRODUCT(E4:E15, F4:F15)/SUM(E4:E15)*110/30</f>
-        <v>103.19047619047619</v>
+        <v>102.56190476190476</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1">
         <f>SUMPRODUCT(E4:E15, F4:F15)/SUM(E4:E9)</f>
-        <v>57.941176470588232</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>57.588235294117645</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="6" t="s">
         <v>19</v>
@@ -1499,12 +1499,12 @@
         <v>20</v>
       </c>
       <c r="E21" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="6" t="s">
         <v>30</v>
@@ -1518,23 +1518,23 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D23" s="11" t="str">
         <f>IF(E23&gt;=104,"Sì","No")</f>
-        <v>No</v>
+        <v>Sì</v>
       </c>
       <c r="E23" s="8">
         <f>SUM(E20:E22)</f>
-        <v>103.19047619047619</v>
+        <v>104.56190476190476</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="6" t="s">
         <v>29</v>
@@ -1548,7 +1548,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="2:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="1"/>
       <c r="C25" s="12" t="s">
         <v>24</v>
@@ -1558,996 +1558,996 @@
       </c>
       <c r="E25" s="14">
         <f>SUM(E23:E24)</f>
-        <v>109.19047619047619</v>
+        <v>110.56190476190476</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F27" s="51"/>
-    </row>
-    <row r="28" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F27" s="45"/>
+    </row>
+    <row r="28" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D28" s="42"/>
       <c r="E28" s="43"/>
     </row>
-    <row r="29" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C30" s="41"/>
       <c r="D30" s="42"/>
       <c r="E30" s="43"/>
     </row>
-    <row r="31" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1001" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1001" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B18:D18"/>

--- a/voti_magistrale_laurea.xlsx
+++ b/voti_magistrale_laurea.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loryb\Desktop\AutIng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A33502-035A-4566-BFC7-89669E49CB1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B8A40D9-A2F7-43D5-ADCE-59E2FECA549C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="2805" windowWidth="19440" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -1130,24 +1130,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:G1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.69921875" customWidth="1"/>
-    <col min="2" max="2" width="2.8984375" customWidth="1"/>
-    <col min="3" max="3" width="52.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.19921875" customWidth="1"/>
-    <col min="5" max="5" width="11.8984375" customWidth="1"/>
-    <col min="6" max="6" width="9.3984375" customWidth="1"/>
-    <col min="7" max="7" width="8.59765625" customWidth="1"/>
-    <col min="8" max="27" width="7.59765625" customWidth="1"/>
+    <col min="1" max="1" width="5.75" customWidth="1"/>
+    <col min="2" max="2" width="2.875" customWidth="1"/>
+    <col min="3" max="3" width="52.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.25" customWidth="1"/>
+    <col min="5" max="5" width="11.875" customWidth="1"/>
+    <col min="6" max="6" width="9.375" customWidth="1"/>
+    <col min="7" max="7" width="8.625" customWidth="1"/>
+    <col min="8" max="27" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="56" t="s">
         <v>0</v>
       </c>
@@ -1157,7 +1157,7 @@
       <c r="F2" s="57"/>
       <c r="G2" s="58"/>
     </row>
-    <row r="3" spans="2:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="36" t="s">
         <v>1</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="26">
         <v>1</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="30">
         <v>2</v>
       </c>
@@ -1214,10 +1214,10 @@
         <v>30</v>
       </c>
       <c r="G5" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="30">
         <v>3</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="30">
         <v>4</v>
       </c>
@@ -1254,10 +1254,10 @@
         <v>30</v>
       </c>
       <c r="G7" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="30">
         <v>5</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="30">
         <v>6</v>
       </c>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="30">
         <v>7</v>
       </c>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="30">
         <v>8</v>
       </c>
@@ -1337,7 +1337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="30">
         <v>9</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="30">
         <v>10</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="30">
         <v>11</v>
       </c>
@@ -1391,13 +1391,13 @@
         <v>12</v>
       </c>
       <c r="F14" s="22">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G14" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="30">
         <v>12</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="30">
         <v>13</v>
       </c>
@@ -1431,7 +1431,7 @@
       <c r="F16" s="37"/>
       <c r="G16" s="38"/>
     </row>
-    <row r="17" spans="2:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="32">
         <v>14</v>
       </c>
@@ -1445,7 +1445,7 @@
       <c r="F17" s="39"/>
       <c r="G17" s="40"/>
     </row>
-    <row r="18" spans="2:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="53" t="s">
         <v>16</v>
       </c>
@@ -1461,10 +1461,10 @@
       </c>
       <c r="G18" s="21">
         <f>SUM(G4:G15)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
       <c r="D19" s="1"/>
@@ -1472,7 +1472,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="3" t="s">
         <v>17</v>
@@ -1482,15 +1482,15 @@
       </c>
       <c r="E20" s="5">
         <f>SUMPRODUCT(E4:E15, F4:F15)/SUM(E4:E15)*110/30</f>
-        <v>102.56190476190476</v>
+        <v>103.4</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1">
         <f>SUMPRODUCT(E4:E15, F4:F15)/SUM(E4:E9)</f>
-        <v>57.588235294117645</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+        <v>58.058823529411768</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="6" t="s">
         <v>19</v>
@@ -1504,7 +1504,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="6" t="s">
         <v>30</v>
@@ -1518,7 +1518,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="10" t="s">
         <v>22</v>
@@ -1529,12 +1529,12 @@
       </c>
       <c r="E23" s="8">
         <f>SUM(E20:E22)</f>
-        <v>104.56190476190476</v>
+        <v>105.4</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="6" t="s">
         <v>29</v>
@@ -1543,12 +1543,12 @@
         <v>23</v>
       </c>
       <c r="E24" s="9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="2:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="12" t="s">
         <v>24</v>
@@ -1558,996 +1558,996 @@
       </c>
       <c r="E25" s="14">
         <f>SUM(E23:E24)</f>
-        <v>110.56190476190476</v>
+        <v>110.4</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F27" s="45"/>
     </row>
-    <row r="28" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D28" s="42"/>
       <c r="E28" s="43"/>
     </row>
-    <row r="29" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" s="41"/>
       <c r="D30" s="42"/>
       <c r="E30" s="43"/>
     </row>
-    <row r="31" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1001" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1001" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B18:D18"/>

--- a/voti_magistrale_laurea.xlsx
+++ b/voti_magistrale_laurea.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loryb\Desktop\AutIng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B8A40D9-A2F7-43D5-ADCE-59E2FECA549C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088316A4-1C0B-478D-811B-34E85DBE2F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="2805" windowWidth="19440" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1130,8 +1130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:G1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1411,7 +1411,7 @@
         <v>6</v>
       </c>
       <c r="F15" s="22">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="31">
         <v>0</v>
@@ -1482,12 +1482,12 @@
       </c>
       <c r="E20" s="5">
         <f>SUMPRODUCT(E4:E15, F4:F15)/SUM(E4:E15)*110/30</f>
-        <v>103.4</v>
+        <v>102.98095238095239</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1">
-        <f>SUMPRODUCT(E4:E15, F4:F15)/SUM(E4:E9)</f>
-        <v>58.058823529411768</v>
+        <f>SUMPRODUCT(E4:E15, F4:F15)/SUM(E4:E15)</f>
+        <v>28.085714285714285</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1513,7 +1513,7 @@
         <v>21</v>
       </c>
       <c r="E22" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -1529,7 +1529,7 @@
       </c>
       <c r="E23" s="8">
         <f>SUM(E20:E22)</f>
-        <v>105.4</v>
+        <v>105.98095238095239</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -1558,7 +1558,7 @@
       </c>
       <c r="E25" s="14">
         <f>SUM(E23:E24)</f>
-        <v>110.4</v>
+        <v>110.98095238095239</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
